--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_22_12.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_22_12.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-772957.0574003529</v>
+        <v>-775792.8312545897</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>13627449.12959064</v>
+        <v>13627449.12959063</v>
       </c>
     </row>
     <row r="11">
@@ -659,7 +659,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>91.31912571630816</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -668,16 +668,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="G2" t="n">
         <v>187.5255871663198</v>
       </c>
       <c r="H2" t="n">
-        <v>187.5255871663198</v>
+        <v>165.1725371760945</v>
       </c>
       <c r="I2" t="n">
-        <v>66.97736571807488</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -735,7 +735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -753,10 +753,10 @@
         <v>136.1637893657753</v>
       </c>
       <c r="H3" t="n">
-        <v>60.44165330311861</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>48.77881175550658</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>149.7702446909496</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>92.45752609970755</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -801,10 +801,10 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y3" t="n">
         <v>187.5255871663198</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -814,31 +814,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>24.1020139637</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>125.7072197708667</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>23.43375830553086</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,10 +859,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.343082173845815</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>132.8223696106904</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -871,16 +871,16 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>129.9236568711259</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>187.5255871663198</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>187.5255871663198</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -896,19 +896,19 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>220.5615480049806</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>12.38174861329102</v>
+        <v>394.4494945062829</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -944,22 +944,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>27.56775456803614</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.111973795689</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -978,13 +978,13 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>2.364997678950912</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -993,7 +993,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>35.58740156585316</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,16 +1020,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>3.122996180870558</v>
+        <v>3.122996180870416</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>142.653604926213</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>111.8070542105603</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -1054,7 +1054,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1066,16 +1066,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>83.90054697182524</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>150.5778138587779</v>
       </c>
       <c r="I7" t="n">
-        <v>116.0475317679814</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0.7241471814563596</v>
+        <v>0.7241471814562175</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1099,28 +1099,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>118.3795591928336</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>201.1824257164361</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>222.3472268875136</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>15.59834537405658</v>
+        <v>286.2475608985237</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>11.87073484362677</v>
+        <v>411.8707348436268</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>304.326804756183</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>78.16360657708285</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1187,19 +1187,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.0710926941158</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>320.3601006605039</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>218.1141406471857</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1224,13 +1224,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>135.5072338470352</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>94.50081326185511</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.17372043046387</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1260,13 +1260,13 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>137.5750138932992</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>192.7632183107638</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>88.14919951609797</v>
+        <v>162.3056641808111</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1288,19 +1288,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.0738988970869</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1339,7 +1339,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>197.1876907596159</v>
+        <v>197.1876907596158</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1348,16 +1348,16 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>226.6361265452595</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>34.32106446352662</v>
+        <v>84.61259060081966</v>
       </c>
       <c r="T11" t="n">
         <v>199.1970568374742</v>
@@ -1427,7 +1427,7 @@
         <v>250.9088959876463</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>277.4607323328415</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1534,16 +1534,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>133.2029077250799</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>16.40931526047663</v>
       </c>
       <c r="G13" t="n">
         <v>165.5420528771669</v>
       </c>
       <c r="H13" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1579,7 +1579,7 @@
         <v>181.338488358459</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4819944627618</v>
       </c>
       <c r="U13" t="n">
         <v>286.1854515484204</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1607,7 +1607,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1777,13 +1777,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>54.32649042089665</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1825,7 +1825,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>68.41584059195273</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1999,10 +1999,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -2017,10 +2017,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>56.04917322725558</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,19 +2047,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>176.76214411214</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2242,22 +2242,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>147.6895341487364</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,16 +2284,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>107.4021082756239</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2318,7 +2318,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -2330,7 +2330,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053459</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2564,7 +2564,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G26" t="n">
         <v>409.8033385187866</v>
@@ -2710,16 +2710,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>107.7122866515512</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2731,7 +2731,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2767,13 +2767,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>220.4289331391115</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2947,13 +2947,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>41.33703994142957</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2965,10 +2965,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3038,7 +3038,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417106</v>
       </c>
       <c r="G32" t="n">
         <v>409.8033385187866</v>
@@ -3187,7 +3187,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>110.0177171766856</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3202,7 +3202,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428169</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634794</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3430,7 +3430,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F37" t="n">
         <v>121.1364005308915</v>
@@ -3439,10 +3439,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652578</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808193</v>
+        <v>42.09059921808248</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U37" t="n">
         <v>261.8998268972044</v>
@@ -3484,7 +3484,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W37" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X37" t="n">
         <v>201.4250078969974</v>
@@ -3518,7 +3518,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3664,7 +3664,7 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D40" t="n">
-        <v>124.330825526173</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E40" t="n">
         <v>122.1493151545295</v>
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3752,7 +3752,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H41" t="n">
         <v>283.1540821444137</v>
@@ -3904,7 +3904,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F43" t="n">
         <v>121.1364005308915</v>
@@ -3913,10 +3913,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652578</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808248</v>
+        <v>42.09059921808193</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U43" t="n">
         <v>261.8998268972044</v>
@@ -3958,7 +3958,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W43" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X43" t="n">
         <v>201.4250078969974</v>
@@ -3989,7 +3989,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H44" t="n">
         <v>283.1540821444137</v>
@@ -4141,7 +4141,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F46" t="n">
         <v>121.1364005308915</v>
@@ -4153,7 +4153,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U46" t="n">
         <v>261.8998268972044</v>
@@ -4304,40 +4304,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>560.6825636487946</v>
+        <v>560.6825636487947</v>
       </c>
       <c r="C2" t="n">
-        <v>468.4410225212106</v>
+        <v>560.6825636487947</v>
       </c>
       <c r="D2" t="n">
-        <v>468.4410225212106</v>
+        <v>560.6825636487947</v>
       </c>
       <c r="E2" t="n">
-        <v>468.4410225212106</v>
+        <v>560.6825636487947</v>
       </c>
       <c r="F2" t="n">
-        <v>461.4955217720071</v>
+        <v>371.26277863231</v>
       </c>
       <c r="G2" t="n">
-        <v>272.0757367555225</v>
+        <v>181.8429936158253</v>
       </c>
       <c r="H2" t="n">
-        <v>82.65595173903779</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I2" t="n">
         <v>15.00204697330559</v>
       </c>
       <c r="J2" t="n">
-        <v>21.033711606785</v>
+        <v>21.03371160678512</v>
       </c>
       <c r="K2" t="n">
-        <v>80.81213159058944</v>
+        <v>80.81213159058956</v>
       </c>
       <c r="L2" t="n">
-        <v>191.8743094079184</v>
+        <v>191.8743094079185</v>
       </c>
       <c r="M2" t="n">
-        <v>347.1218190644755</v>
+        <v>347.1218190644756</v>
       </c>
       <c r="N2" t="n">
         <v>509.4952041123828</v>
@@ -4346,34 +4346,34 @@
         <v>649.4845259985582</v>
       </c>
       <c r="P2" t="n">
-        <v>734.4611726020262</v>
+        <v>734.4611726020263</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.1023486652792</v>
+        <v>750.1023486652794</v>
       </c>
       <c r="R2" t="n">
-        <v>750.1023486652792</v>
+        <v>750.1023486652794</v>
       </c>
       <c r="S2" t="n">
-        <v>750.1023486652792</v>
+        <v>750.1023486652794</v>
       </c>
       <c r="T2" t="n">
-        <v>750.1023486652792</v>
+        <v>750.1023486652794</v>
       </c>
       <c r="U2" t="n">
-        <v>560.6825636487946</v>
+        <v>560.6825636487947</v>
       </c>
       <c r="V2" t="n">
-        <v>560.6825636487946</v>
+        <v>560.6825636487947</v>
       </c>
       <c r="W2" t="n">
-        <v>560.6825636487946</v>
+        <v>560.6825636487947</v>
       </c>
       <c r="X2" t="n">
-        <v>560.6825636487946</v>
+        <v>560.6825636487947</v>
       </c>
       <c r="Y2" t="n">
-        <v>560.6825636487946</v>
+        <v>560.6825636487947</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>409.3994882033909</v>
+        <v>299.0757861239715</v>
       </c>
       <c r="C3" t="n">
-        <v>409.3994882033909</v>
+        <v>299.0757861239715</v>
       </c>
       <c r="D3" t="n">
-        <v>409.3994882033909</v>
+        <v>299.0757861239715</v>
       </c>
       <c r="E3" t="n">
-        <v>409.3994882033909</v>
+        <v>299.0757861239715</v>
       </c>
       <c r="F3" t="n">
-        <v>262.8649302302758</v>
+        <v>152.5412281508565</v>
       </c>
       <c r="G3" t="n">
-        <v>125.325749052725</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H3" t="n">
-        <v>64.27357399906981</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I3" t="n">
         <v>15.00204697330559</v>
@@ -4410,13 +4410,13 @@
         <v>15.00204697330559</v>
       </c>
       <c r="K3" t="n">
-        <v>67.13418877024208</v>
+        <v>67.13418877024196</v>
       </c>
       <c r="L3" t="n">
-        <v>183.5548280772648</v>
+        <v>183.5548280772647</v>
       </c>
       <c r="M3" t="n">
-        <v>338.7690911140243</v>
+        <v>338.7690911140242</v>
       </c>
       <c r="N3" t="n">
         <v>512.5000587546599</v>
@@ -4425,34 +4425,34 @@
         <v>649.2101578476345</v>
       </c>
       <c r="P3" t="n">
-        <v>739.5989987017058</v>
+        <v>739.5989987017059</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.1023486652792</v>
+        <v>750.1023486652794</v>
       </c>
       <c r="R3" t="n">
-        <v>750.1023486652792</v>
+        <v>750.1023486652794</v>
       </c>
       <c r="S3" t="n">
-        <v>598.8192732198755</v>
+        <v>750.1023486652794</v>
       </c>
       <c r="T3" t="n">
-        <v>598.8192732198755</v>
+        <v>656.7109081605242</v>
       </c>
       <c r="U3" t="n">
-        <v>598.8192732198755</v>
+        <v>656.7109081605242</v>
       </c>
       <c r="V3" t="n">
-        <v>598.8192732198755</v>
+        <v>656.7109081605242</v>
       </c>
       <c r="W3" t="n">
-        <v>598.8192732198755</v>
+        <v>656.7109081605242</v>
       </c>
       <c r="X3" t="n">
-        <v>409.3994882033909</v>
+        <v>656.7109081605242</v>
       </c>
       <c r="Y3" t="n">
-        <v>409.3994882033909</v>
+        <v>467.2911231440395</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>186.237463121418</v>
+        <v>484.7023219159699</v>
       </c>
       <c r="C4" t="n">
-        <v>186.237463121418</v>
+        <v>315.7661389880631</v>
       </c>
       <c r="D4" t="n">
-        <v>186.237463121418</v>
+        <v>165.6494995757273</v>
       </c>
       <c r="E4" t="n">
-        <v>186.237463121418</v>
+        <v>165.6494995757273</v>
       </c>
       <c r="F4" t="n">
-        <v>39.3475156235076</v>
+        <v>165.6494995757273</v>
       </c>
       <c r="G4" t="n">
-        <v>39.3475156235076</v>
+        <v>165.6494995757273</v>
       </c>
       <c r="H4" t="n">
-        <v>15.00204697330559</v>
+        <v>165.6494995757273</v>
       </c>
       <c r="I4" t="n">
-        <v>15.00204697330559</v>
+        <v>38.67250990818524</v>
       </c>
       <c r="J4" t="n">
         <v>15.00204697330559</v>
       </c>
       <c r="K4" t="n">
-        <v>106.7151088594233</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="L4" t="n">
-        <v>118.7527324484195</v>
+        <v>187.8896250884406</v>
       </c>
       <c r="M4" t="n">
-        <v>304.4030637430761</v>
+        <v>373.5399563830973</v>
       </c>
       <c r="N4" t="n">
-        <v>490.0533950377327</v>
+        <v>471.6341805242515</v>
       </c>
       <c r="O4" t="n">
-        <v>634.3723839608015</v>
+        <v>634.3723839608016</v>
       </c>
       <c r="P4" t="n">
-        <v>750.1023486652792</v>
+        <v>750.1023486652794</v>
       </c>
       <c r="Q4" t="n">
-        <v>746.7254979846269</v>
+        <v>750.1023486652794</v>
       </c>
       <c r="R4" t="n">
-        <v>746.7254979846269</v>
+        <v>615.9383389575113</v>
       </c>
       <c r="S4" t="n">
-        <v>746.7254979846269</v>
+        <v>615.9383389575113</v>
       </c>
       <c r="T4" t="n">
-        <v>746.7254979846269</v>
+        <v>615.9383389575113</v>
       </c>
       <c r="U4" t="n">
-        <v>746.7254979846269</v>
+        <v>484.7023219159699</v>
       </c>
       <c r="V4" t="n">
-        <v>746.7254979846269</v>
+        <v>484.7023219159699</v>
       </c>
       <c r="W4" t="n">
-        <v>557.3057129681423</v>
+        <v>484.7023219159699</v>
       </c>
       <c r="X4" t="n">
-        <v>367.8859279516577</v>
+        <v>484.7023219159699</v>
       </c>
       <c r="Y4" t="n">
-        <v>367.8859279516577</v>
+        <v>484.7023219159699</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>266.8522187708779</v>
+        <v>1549.951761289742</v>
       </c>
       <c r="C5" t="n">
-        <v>266.8522187708779</v>
+        <v>1180.98924434933</v>
       </c>
       <c r="D5" t="n">
-        <v>266.8522187708779</v>
+        <v>822.7235457425795</v>
       </c>
       <c r="E5" t="n">
-        <v>266.8522187708779</v>
+        <v>436.9352931443353</v>
       </c>
       <c r="F5" t="n">
-        <v>44.06277634160458</v>
+        <v>429.9897923951319</v>
       </c>
       <c r="G5" t="n">
-        <v>31.55595956050253</v>
+        <v>31.55595956050263</v>
       </c>
       <c r="H5" t="n">
-        <v>31.55595956050253</v>
+        <v>31.55595956050263</v>
       </c>
       <c r="I5" t="n">
-        <v>31.55595956050253</v>
+        <v>31.55595956050263</v>
       </c>
       <c r="J5" t="n">
-        <v>97.75664306888899</v>
+        <v>97.75664306888939</v>
       </c>
       <c r="K5" t="n">
-        <v>247.7128251370713</v>
+        <v>247.7128251370722</v>
       </c>
       <c r="L5" t="n">
-        <v>470.6484908832578</v>
+        <v>470.6484908832596</v>
       </c>
       <c r="M5" t="n">
-        <v>750.3768115740691</v>
+        <v>750.3768115740716</v>
       </c>
       <c r="N5" t="n">
-        <v>1039.245237319446</v>
+        <v>1039.245237319449</v>
       </c>
       <c r="O5" t="n">
-        <v>1298.680239159193</v>
+        <v>1298.680239159197</v>
       </c>
       <c r="P5" t="n">
-        <v>1485.601010129562</v>
+        <v>1485.601010129567</v>
       </c>
       <c r="Q5" t="n">
-        <v>1577.797978025126</v>
+        <v>1577.797978025132</v>
       </c>
       <c r="R5" t="n">
-        <v>1577.797978025126</v>
+        <v>1577.797978025132</v>
       </c>
       <c r="S5" t="n">
-        <v>1577.797978025126</v>
+        <v>1549.951761289742</v>
       </c>
       <c r="T5" t="n">
-        <v>1577.797978025126</v>
+        <v>1549.951761289742</v>
       </c>
       <c r="U5" t="n">
-        <v>1324.149519645643</v>
+        <v>1549.951761289742</v>
       </c>
       <c r="V5" t="n">
-        <v>993.086632302072</v>
+        <v>1549.951761289742</v>
       </c>
       <c r="W5" t="n">
-        <v>640.3179770319578</v>
+        <v>1549.951761289742</v>
       </c>
       <c r="X5" t="n">
-        <v>266.8522187708779</v>
+        <v>1549.951761289742</v>
       </c>
       <c r="Y5" t="n">
-        <v>266.8522187708779</v>
+        <v>1549.951761289742</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>388.4904170832831</v>
+        <v>357.3322850472758</v>
       </c>
       <c r="C6" t="n">
-        <v>214.0373878021561</v>
+        <v>182.8792557661488</v>
       </c>
       <c r="D6" t="n">
-        <v>214.0373878021561</v>
+        <v>33.94484610489749</v>
       </c>
       <c r="E6" t="n">
-        <v>214.0373878021561</v>
+        <v>31.55595956050263</v>
       </c>
       <c r="F6" t="n">
-        <v>67.50282982904108</v>
+        <v>31.55595956050263</v>
       </c>
       <c r="G6" t="n">
-        <v>67.50282982904108</v>
+        <v>31.55595956050263</v>
       </c>
       <c r="H6" t="n">
-        <v>67.50282982904108</v>
+        <v>31.55595956050263</v>
       </c>
       <c r="I6" t="n">
-        <v>31.55595956050253</v>
+        <v>31.55595956050263</v>
       </c>
       <c r="J6" t="n">
-        <v>52.16678618102053</v>
+        <v>52.16678618102083</v>
       </c>
       <c r="K6" t="n">
-        <v>198.6394306089997</v>
+        <v>165.5487964445749</v>
       </c>
       <c r="L6" t="n">
-        <v>397.4180767726345</v>
+        <v>377.7095591238219</v>
       </c>
       <c r="M6" t="n">
-        <v>648.7402492348355</v>
+        <v>629.0317315860234</v>
       </c>
       <c r="N6" t="n">
-        <v>921.1228166853942</v>
+        <v>901.4142990365827</v>
       </c>
       <c r="O6" t="n">
-        <v>1148.079856450031</v>
+        <v>1128.37133880122</v>
       </c>
       <c r="P6" t="n">
-        <v>1310.899823503944</v>
+        <v>1518.87633836244</v>
       </c>
       <c r="Q6" t="n">
-        <v>1577.797978025126</v>
+        <v>1577.797978025132</v>
       </c>
       <c r="R6" t="n">
-        <v>1574.643436428287</v>
+        <v>1574.643436428293</v>
       </c>
       <c r="S6" t="n">
-        <v>1574.643436428287</v>
+        <v>1430.548885997775</v>
       </c>
       <c r="T6" t="n">
-        <v>1574.643436428287</v>
+        <v>1430.548885997775</v>
       </c>
       <c r="U6" t="n">
-        <v>1461.707018033782</v>
+        <v>1430.548885997775</v>
       </c>
       <c r="V6" t="n">
-        <v>1226.554909802039</v>
+        <v>1195.396777766032</v>
       </c>
       <c r="W6" t="n">
-        <v>972.3175530738379</v>
+        <v>941.1594210378305</v>
       </c>
       <c r="X6" t="n">
-        <v>764.466052868305</v>
+        <v>733.3079208322977</v>
       </c>
       <c r="Y6" t="n">
-        <v>556.7057541033512</v>
+        <v>525.5476220673438</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>466.3564269288205</v>
+        <v>417.0473440641678</v>
       </c>
       <c r="C7" t="n">
-        <v>297.4202440009136</v>
+        <v>417.0473440641678</v>
       </c>
       <c r="D7" t="n">
-        <v>297.4202440009136</v>
+        <v>417.0473440641678</v>
       </c>
       <c r="E7" t="n">
-        <v>149.5071504185205</v>
+        <v>269.1342504817747</v>
       </c>
       <c r="F7" t="n">
-        <v>149.5071504185205</v>
+        <v>269.1342504817747</v>
       </c>
       <c r="G7" t="n">
-        <v>149.5071504185205</v>
+        <v>184.3862232375068</v>
       </c>
       <c r="H7" t="n">
-        <v>149.5071504185205</v>
+        <v>32.28742135995336</v>
       </c>
       <c r="I7" t="n">
-        <v>32.2874213599534</v>
+        <v>32.28742135995336</v>
       </c>
       <c r="J7" t="n">
-        <v>31.55595956050253</v>
+        <v>31.55595956050263</v>
       </c>
       <c r="K7" t="n">
-        <v>160.2146999684173</v>
+        <v>160.2146999684176</v>
       </c>
       <c r="L7" t="n">
-        <v>380.3800266395357</v>
+        <v>380.3800266395364</v>
       </c>
       <c r="M7" t="n">
-        <v>622.9026172520894</v>
+        <v>622.9026172520903</v>
       </c>
       <c r="N7" t="n">
-        <v>865.0931791463728</v>
+        <v>865.093179146374</v>
       </c>
       <c r="O7" t="n">
-        <v>1072.779067219613</v>
+        <v>1072.779067219615</v>
       </c>
       <c r="P7" t="n">
-        <v>1226.969541083245</v>
+        <v>1226.969541083247</v>
       </c>
       <c r="Q7" t="n">
-        <v>1250.287952709563</v>
+        <v>1250.287952709564</v>
       </c>
       <c r="R7" t="n">
-        <v>1130.712640393569</v>
+        <v>1250.287952709564</v>
       </c>
       <c r="S7" t="n">
-        <v>927.4980689628255</v>
+        <v>1250.287952709564</v>
       </c>
       <c r="T7" t="n">
-        <v>702.9049104905896</v>
+        <v>1250.287952709564</v>
       </c>
       <c r="U7" t="n">
-        <v>687.1490060723506</v>
+        <v>961.1490023070153</v>
       </c>
       <c r="V7" t="n">
-        <v>687.1490060723506</v>
+        <v>706.4645141011284</v>
       </c>
       <c r="W7" t="n">
-        <v>687.1490060723506</v>
+        <v>417.0473440641678</v>
       </c>
       <c r="X7" t="n">
-        <v>687.1490060723506</v>
+        <v>417.0473440641678</v>
       </c>
       <c r="Y7" t="n">
-        <v>466.3564269288205</v>
+        <v>417.0473440641678</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>835.308259524301</v>
+        <v>1238.487946023816</v>
       </c>
       <c r="C8" t="n">
-        <v>466.3457425838893</v>
+        <v>1238.487946023816</v>
       </c>
       <c r="D8" t="n">
-        <v>466.3457425838893</v>
+        <v>1238.487946023816</v>
       </c>
       <c r="E8" t="n">
-        <v>466.3457425838893</v>
+        <v>852.699693425572</v>
       </c>
       <c r="F8" t="n">
-        <v>55.35983779428172</v>
+        <v>845.7541926763686</v>
       </c>
       <c r="G8" t="n">
-        <v>43.36919653809306</v>
+        <v>429.7231473797759</v>
       </c>
       <c r="H8" t="n">
-        <v>43.36919653809306</v>
+        <v>122.3223344947425</v>
       </c>
       <c r="I8" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="J8" t="n">
-        <v>152.5078184301901</v>
+        <v>152.5078184301905</v>
       </c>
       <c r="K8" t="n">
-        <v>366.8168396232717</v>
+        <v>366.8168396232727</v>
       </c>
       <c r="L8" t="n">
-        <v>669.5878927711869</v>
+        <v>669.5878927711881</v>
       </c>
       <c r="M8" t="n">
-        <v>1038.14846457873</v>
+        <v>1038.148464578732</v>
       </c>
       <c r="N8" t="n">
-        <v>1417.286540135166</v>
+        <v>1417.286540135169</v>
       </c>
       <c r="O8" t="n">
-        <v>1761.960612545596</v>
+        <v>1761.960612545599</v>
       </c>
       <c r="P8" t="n">
-        <v>2021.630958172447</v>
+        <v>2021.630958172451</v>
       </c>
       <c r="Q8" t="n">
-        <v>2168.459826904653</v>
+        <v>2168.459826904657</v>
       </c>
       <c r="R8" t="n">
-        <v>2168.459826904653</v>
+        <v>2168.459826904657</v>
       </c>
       <c r="S8" t="n">
-        <v>2168.459826904653</v>
+        <v>2168.459826904657</v>
       </c>
       <c r="T8" t="n">
-        <v>2168.459826904653</v>
+        <v>2168.459826904657</v>
       </c>
       <c r="U8" t="n">
-        <v>2168.459826904653</v>
+        <v>1914.852662567167</v>
       </c>
       <c r="V8" t="n">
-        <v>2168.459826904653</v>
+        <v>1591.25660129393</v>
       </c>
       <c r="W8" t="n">
-        <v>1815.691171634539</v>
+        <v>1238.487946023816</v>
       </c>
       <c r="X8" t="n">
-        <v>1442.225413373459</v>
+        <v>1238.487946023816</v>
       </c>
       <c r="Y8" t="n">
-        <v>1221.908099588423</v>
+        <v>1238.487946023816</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>672.5286484590418</v>
+        <v>931.2981106200058</v>
       </c>
       <c r="C9" t="n">
-        <v>498.0756191779149</v>
+        <v>756.8450813388788</v>
       </c>
       <c r="D9" t="n">
-        <v>349.1412095166636</v>
+        <v>607.9106716776275</v>
       </c>
       <c r="E9" t="n">
-        <v>189.9037545112081</v>
+        <v>448.6732166721721</v>
       </c>
       <c r="F9" t="n">
-        <v>43.36919653809306</v>
+        <v>302.138658699057</v>
       </c>
       <c r="G9" t="n">
-        <v>43.36919653809306</v>
+        <v>165.2626649141729</v>
       </c>
       <c r="H9" t="n">
-        <v>43.36919653809306</v>
+        <v>69.80729798300615</v>
       </c>
       <c r="I9" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="J9" t="n">
-        <v>89.55356510562316</v>
+        <v>89.55356510562342</v>
       </c>
       <c r="K9" t="n">
-        <v>508.4654164929048</v>
+        <v>333.5994704680821</v>
       </c>
       <c r="L9" t="n">
-        <v>766.0165520528924</v>
+        <v>591.1506060280701</v>
       </c>
       <c r="M9" t="n">
-        <v>1085.923447521402</v>
+        <v>911.0575014965799</v>
       </c>
       <c r="N9" t="n">
-        <v>1428.705971516033</v>
+        <v>1253.840025491212</v>
       </c>
       <c r="O9" t="n">
-        <v>1720.065217770599</v>
+        <v>1545.199271745778</v>
       </c>
       <c r="P9" t="n">
-        <v>2074.985828260213</v>
+        <v>2074.985828260217</v>
       </c>
       <c r="Q9" t="n">
-        <v>2168.459826904653</v>
+        <v>2168.459826904657</v>
       </c>
       <c r="R9" t="n">
-        <v>2168.459826904653</v>
+        <v>2168.459826904657</v>
       </c>
       <c r="S9" t="n">
-        <v>2029.495166406371</v>
+        <v>2168.459826904657</v>
       </c>
       <c r="T9" t="n">
-        <v>1834.784844880347</v>
+        <v>2168.459826904657</v>
       </c>
       <c r="U9" t="n">
-        <v>1745.745249409541</v>
+        <v>2004.514711570505</v>
       </c>
       <c r="V9" t="n">
-        <v>1510.593141177798</v>
+        <v>1769.362603338762</v>
       </c>
       <c r="W9" t="n">
-        <v>1256.355784449597</v>
+        <v>1515.12524661056</v>
       </c>
       <c r="X9" t="n">
-        <v>1048.504284244064</v>
+        <v>1307.273746405028</v>
       </c>
       <c r="Y9" t="n">
-        <v>840.7439854791098</v>
+        <v>1099.513447640074</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>341.3989295328219</v>
+        <v>359.1953269639104</v>
       </c>
       <c r="C10" t="n">
-        <v>341.3989295328219</v>
+        <v>190.2591440360035</v>
       </c>
       <c r="D10" t="n">
-        <v>191.2822901204862</v>
+        <v>190.2591440360035</v>
       </c>
       <c r="E10" t="n">
-        <v>43.36919653809306</v>
+        <v>190.2591440360035</v>
       </c>
       <c r="F10" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="G10" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="H10" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="I10" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="J10" t="n">
-        <v>58.6963092017423</v>
+        <v>58.69630920174252</v>
       </c>
       <c r="K10" t="n">
-        <v>213.7203003246705</v>
+        <v>213.7203003246709</v>
       </c>
       <c r="L10" t="n">
-        <v>467.6240706728883</v>
+        <v>467.624070672889</v>
       </c>
       <c r="M10" t="n">
-        <v>745.7191196640786</v>
+        <v>745.7191196640795</v>
       </c>
       <c r="N10" t="n">
-        <v>1022.636306385109</v>
+        <v>1022.63630638511</v>
       </c>
       <c r="O10" t="n">
-        <v>1262.397853152952</v>
+        <v>1262.397853152954</v>
       </c>
       <c r="P10" t="n">
-        <v>1444.034594271086</v>
+        <v>1444.034594271088</v>
       </c>
       <c r="Q10" t="n">
-        <v>1486.355378693647</v>
+        <v>1486.355378693649</v>
       </c>
       <c r="R10" t="n">
-        <v>1486.355378693647</v>
+        <v>1486.355378693649</v>
       </c>
       <c r="S10" t="n">
-        <v>1287.175893077873</v>
+        <v>1287.175893077875</v>
       </c>
       <c r="T10" t="n">
-        <v>1287.175893077873</v>
+        <v>1287.175893077875</v>
       </c>
       <c r="U10" t="n">
-        <v>1287.175893077873</v>
+        <v>1287.175893077875</v>
       </c>
       <c r="V10" t="n">
-        <v>1032.491404871986</v>
+        <v>1058.250512729128</v>
       </c>
       <c r="W10" t="n">
-        <v>743.0742348350257</v>
+        <v>768.8333426921674</v>
       </c>
       <c r="X10" t="n">
-        <v>743.0742348350257</v>
+        <v>540.8437917941501</v>
       </c>
       <c r="Y10" t="n">
-        <v>522.2816556914955</v>
+        <v>540.8437917941501</v>
       </c>
     </row>
     <row r="11">
@@ -5048,16 +5048,16 @@
         <v>1461.457663018649</v>
       </c>
       <c r="M11" t="n">
-        <v>2182.462224957686</v>
+        <v>2182.462224957688</v>
       </c>
       <c r="N11" t="n">
-        <v>2919.747202874792</v>
+        <v>2919.747202874793</v>
       </c>
       <c r="O11" t="n">
         <v>3602.609239333931</v>
       </c>
       <c r="P11" t="n">
-        <v>4150.915188021278</v>
+        <v>4150.915188021279</v>
       </c>
       <c r="Q11" t="n">
         <v>4514.497374127286</v>
@@ -5066,13 +5066,13 @@
         <v>4640.581161304024</v>
       </c>
       <c r="S11" t="n">
-        <v>4605.913419421674</v>
+        <v>4555.113898070873</v>
       </c>
       <c r="T11" t="n">
-        <v>4404.704271100993</v>
+        <v>4353.904749750192</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.260941820542</v>
+        <v>4100.461420469741</v>
       </c>
       <c r="V11" t="n">
         <v>3820.198054476972</v>
@@ -5115,31 +5115,31 @@
         <v>92.81162322608048</v>
       </c>
       <c r="I12" t="n">
-        <v>93.85065580060304</v>
+        <v>92.81162322608048</v>
       </c>
       <c r="J12" t="n">
-        <v>106.3138404733493</v>
+        <v>240.4596049779263</v>
       </c>
       <c r="K12" t="n">
-        <v>106.3138404733493</v>
+        <v>240.4596049779263</v>
       </c>
       <c r="L12" t="n">
-        <v>106.3138404733493</v>
+        <v>731.1919378216775</v>
       </c>
       <c r="M12" t="n">
-        <v>698.3321947254768</v>
+        <v>1323.210292073805</v>
       </c>
       <c r="N12" t="n">
-        <v>1320.428158124813</v>
+        <v>1945.306255473141</v>
       </c>
       <c r="O12" t="n">
-        <v>1867.304633125007</v>
+        <v>2492.182730473335</v>
       </c>
       <c r="P12" t="n">
-        <v>2286.888151551083</v>
+        <v>2492.182730473335</v>
       </c>
       <c r="Q12" t="n">
-        <v>2517.44942553633</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="R12" t="n">
         <v>2552.77562977024</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1002.389696492719</v>
+        <v>743.5667998938108</v>
       </c>
       <c r="C13" t="n">
-        <v>833.4535135648122</v>
+        <v>574.6306169659039</v>
       </c>
       <c r="D13" t="n">
-        <v>683.3368741524764</v>
+        <v>424.5139775535681</v>
       </c>
       <c r="E13" t="n">
-        <v>548.7884825109816</v>
+        <v>276.600883971175</v>
       </c>
       <c r="F13" t="n">
-        <v>401.8985350130712</v>
+        <v>260.0258180515016</v>
       </c>
       <c r="G13" t="n">
-        <v>234.6843401876501</v>
+        <v>92.81162322608048</v>
       </c>
       <c r="H13" t="n">
         <v>92.81162322608048</v>
@@ -5227,22 +5227,22 @@
         <v>2245.205584149097</v>
       </c>
       <c r="T13" t="n">
-        <v>2245.205584149097</v>
+        <v>2025.526801863479</v>
       </c>
       <c r="U13" t="n">
-        <v>1956.129370463824</v>
+        <v>1736.450588178206</v>
       </c>
       <c r="V13" t="n">
-        <v>1701.444882257937</v>
+        <v>1481.766099972319</v>
       </c>
       <c r="W13" t="n">
-        <v>1412.027712220976</v>
+        <v>1192.348929935358</v>
       </c>
       <c r="X13" t="n">
-        <v>1184.038161322959</v>
+        <v>964.3593790373409</v>
       </c>
       <c r="Y13" t="n">
-        <v>1184.038161322959</v>
+        <v>743.5667998938108</v>
       </c>
     </row>
     <row r="14">
@@ -5273,22 +5273,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5312,13 +5312,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5352,31 +5352,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K15" t="n">
-        <v>95.58405025273903</v>
+        <v>221.3431781811722</v>
       </c>
       <c r="L15" t="n">
-        <v>95.58405025273903</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="M15" t="n">
-        <v>692.9625378792909</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N15" t="n">
-        <v>1307.627092998424</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263527</v>
+        <v>762.5477693179085</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356195</v>
+        <v>593.6115863900017</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232838</v>
+        <v>443.4949469776659</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>295.5818533952728</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>148.6919058973624</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>148.6919058973624</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5458,28 +5458,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2379.917379832663</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>2160.315914855604</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1871.240688199802</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>1616.556199993915</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W16" t="n">
-        <v>1547.449290305074</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X16" t="n">
-        <v>1319.459739407057</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y16" t="n">
-        <v>1098.667160263527</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="17">
@@ -5495,13 +5495,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5513,13 +5513,13 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
         <v>2206.558663014778</v>
@@ -5528,7 +5528,7 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5589,31 +5589,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1098.667160263527</v>
+        <v>762.5477693179085</v>
       </c>
       <c r="C19" t="n">
-        <v>929.7309773356195</v>
+        <v>762.5477693179085</v>
       </c>
       <c r="D19" t="n">
-        <v>779.6143379232838</v>
+        <v>612.4311299055728</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408906</v>
+        <v>464.5180363231797</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>317.6280888252693</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>150.4319895401492</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>2018.514925172274</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>2018.514925172274</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V19" t="n">
-        <v>2018.514925172274</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W19" t="n">
-        <v>1729.097755135313</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X19" t="n">
-        <v>1501.108204237296</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y19" t="n">
-        <v>1280.315625093766</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="20">
@@ -5747,25 +5747,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5786,13 +5786,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5829,28 +5829,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>874.8686257536381</v>
+        <v>802.9288273958734</v>
       </c>
       <c r="C22" t="n">
-        <v>705.9324428257312</v>
+        <v>633.9926444679666</v>
       </c>
       <c r="D22" t="n">
-        <v>555.8158034133954</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E22" t="n">
-        <v>407.9027098310023</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F22" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2338.476105524075</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>2049.400878868273</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V22" t="n">
-        <v>1794.716390662386</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="W22" t="n">
-        <v>1505.299220625425</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X22" t="n">
-        <v>1277.309669727408</v>
+        <v>1205.369871369643</v>
       </c>
       <c r="Y22" t="n">
-        <v>1056.517090583878</v>
+        <v>984.5772922261132</v>
       </c>
     </row>
     <row r="23">
@@ -5969,13 +5969,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
@@ -5984,13 +5984,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6066,28 +6066,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6169,10 +6169,10 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
         <v>2035.268256189238</v>
@@ -6206,10 +6206,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
         <v>793.7736536168611</v>
@@ -6221,25 +6221,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6303,28 +6303,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>653.7474797708871</v>
+        <v>869.6905094135296</v>
       </c>
       <c r="C28" t="n">
-        <v>484.8112968429803</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="D28" t="n">
-        <v>484.8112968429803</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E28" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>1754.805592491204</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396417</v>
+        <v>1500.121104285317</v>
       </c>
       <c r="W28" t="n">
-        <v>1211.329899359456</v>
+        <v>1500.121104285317</v>
       </c>
       <c r="X28" t="n">
-        <v>983.3403484614387</v>
+        <v>1272.131553387299</v>
       </c>
       <c r="Y28" t="n">
-        <v>762.5477693179085</v>
+        <v>1051.338974243769</v>
       </c>
     </row>
     <row r="29">
@@ -6449,31 +6449,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616861</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6482,7 +6482,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6540,28 +6540,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>691.1951506745238</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>1318.79311422913</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>695.5020655703109</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>526.5658826424041</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6674,43 +6674,43 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616861</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6719,31 +6719,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6771,25 +6771,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6835,25 +6835,25 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6929,25 +6929,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6956,31 +6956,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7008,34 +7008,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319321</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656815</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942654</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G37" t="n">
         <v>268.5553036345476</v>
@@ -7090,10 +7090,10 @@
         <v>151.373419438402</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
-        <v>198.0944824954149</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
         <v>483.8255460380728</v>
@@ -7132,10 +7132,10 @@
         <v>1748.685508594055</v>
       </c>
       <c r="W37" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X37" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y37" t="n">
         <v>1084.076049400516</v>
@@ -7154,16 +7154,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
@@ -7208,13 +7208,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7251,28 +7251,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>691.1951506745238</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1318.79311422913</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319328</v>
+        <v>926.9575315319323</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656822</v>
+        <v>782.5512955656817</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150022</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580114</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H40" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384019</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7333,7 +7333,7 @@
         <v>198.094482495415</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L40" t="n">
         <v>898.2659412311323</v>
@@ -7342,7 +7342,7 @@
         <v>1344.317444979286</v>
       </c>
       <c r="N40" t="n">
-        <v>1785.769117656414</v>
+        <v>1785.769117656413</v>
       </c>
       <c r="O40" t="n">
         <v>2179.340199382518</v>
@@ -7351,10 +7351,10 @@
         <v>2496.057455973196</v>
       </c>
       <c r="Q40" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717214</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S40" t="n">
         <v>2438.456847547835</v>
@@ -7366,7 +7366,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W40" t="n">
         <v>1483.798285518751</v>
@@ -7391,13 +7391,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7406,10 +7406,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075807</v>
@@ -7488,22 +7488,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>589.1422692637306</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1186.520756890282</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>1814.118720444889</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
         <v>2553.061288060775</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319316</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656818</v>
+        <v>782.551295565681</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150016</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942649</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580114</v>
+        <v>411.2214559580109</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345476</v>
+        <v>268.555303634547</v>
       </c>
       <c r="H43" t="n">
         <v>151.373419438402</v>
@@ -7567,13 +7567,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954147</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380726</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311323</v>
+        <v>898.265941231132</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7603,16 +7603,16 @@
         <v>1978.840049838285</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594054</v>
       </c>
       <c r="W43" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y43" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
     <row r="44">
@@ -7622,43 +7622,43 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7667,31 +7667,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7719,10 +7719,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J45" t="n">
         <v>245.2306927803937</v>
@@ -7780,31 +7780,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319329</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656823</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150028</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942659</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580118</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J46" t="n">
-        <v>198.0944824954149</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
         <v>483.8255460380728</v>
@@ -7813,19 +7813,19 @@
         <v>898.2659412311323</v>
       </c>
       <c r="M46" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N46" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O46" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P46" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q46" t="n">
-        <v>2639.297491717216</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
         <v>2596.781734931274</v>
@@ -7840,7 +7840,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V46" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W46" t="n">
         <v>1483.798285518751</v>
@@ -8137,19 +8137,19 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K4" t="n">
-        <v>106.7437663446525</v>
+        <v>14.10430989402855</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>162.4747015415544</v>
       </c>
       <c r="M4" t="n">
         <v>171.4142040457083</v>
       </c>
       <c r="N4" t="n">
-        <v>163.8604018711116</v>
+        <v>75.41988959484651</v>
       </c>
       <c r="O4" t="n">
-        <v>144.4363991805478</v>
+        <v>163.0416663658825</v>
       </c>
       <c r="P4" t="n">
         <v>135.0065633140411</v>
@@ -8237,7 +8237,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>32.09996870867209</v>
+        <v>32.09996870867184</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8295,10 +8295,10 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>33.42488299436914</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>13.51728940970878</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8310,10 +8310,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>229.9848813205115</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8532,7 +8532,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>87.832968300636</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8547,13 +8547,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>141.8304999279935</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>31.66886087721431</v>
+        <v>31.66886087721419</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -22544,28 +22544,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>183.0174465221774</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>219.3504585753916</v>
       </c>
       <c r="G2" t="n">
         <v>225.5722460637382</v>
       </c>
       <c r="H2" t="n">
-        <v>129.3682389399025</v>
+        <v>151.7212889301278</v>
       </c>
       <c r="I2" t="n">
-        <v>58.49395140189986</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22601,7 +22601,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>63.64367339871053</v>
+        <v>63.6436733987105</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -22610,10 +22610,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -23306,7 +23306,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>50.29152613729303</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23315,7 +23315,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>50.29152613729343</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23422,16 +23422,16 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>13.23105492148929</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>129.0117327624546</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I13" t="n">
         <v>81.80457674440905</v>
@@ -23467,7 +23467,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4819944627618</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>179.8319801819388</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23665,13 +23665,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>85.96822242532724</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23713,7 +23713,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>218.1071577446383</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23887,10 +23887,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.831980181939</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23905,10 +23905,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>84.24553961896831</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,19 +23935,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>40.64330621514821</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24130,22 +24130,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>0.9259388694759139</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,16 +24172,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>110.0033420516644</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24409,13 +24409,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>57.22910392194237</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24598,16 +24598,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>72.11969353038612</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24619,7 +24619,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24655,13 +24655,13 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>65.75554125013261</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24835,13 +24835,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>107.2784330767828</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24853,10 +24853,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -25075,7 +25075,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25090,7 +25090,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25552,7 +25552,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>-2.293720896561331e-13</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>-5.044853423896711e-13</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1177304.436105415</v>
+        <v>1177304.436105416</v>
       </c>
     </row>
     <row r="6">
@@ -26311,22 +26311,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>208611.1685410619</v>
+        <v>208611.168541062</v>
       </c>
       <c r="C2" t="n">
-        <v>246312.5309592852</v>
+        <v>246312.530959285</v>
       </c>
       <c r="D2" t="n">
-        <v>246312.530959285</v>
+        <v>246312.5309592849</v>
       </c>
       <c r="E2" t="n">
-        <v>240803.9314914091</v>
+        <v>240803.9314914092</v>
       </c>
       <c r="F2" t="n">
         <v>242143.9799070018</v>
       </c>
       <c r="G2" t="n">
-        <v>242143.9799070018</v>
+        <v>242143.9799070019</v>
       </c>
       <c r="H2" t="n">
         <v>242143.9799070018</v>
@@ -26335,7 +26335,7 @@
         <v>242143.9799070018</v>
       </c>
       <c r="J2" t="n">
-        <v>242143.9799070019</v>
+        <v>242143.9799070018</v>
       </c>
       <c r="K2" t="n">
         <v>242143.9799070018</v>
@@ -26344,13 +26344,13 @@
         <v>242143.9799070018</v>
       </c>
       <c r="M2" t="n">
+        <v>246312.5309592848</v>
+      </c>
+      <c r="N2" t="n">
         <v>246312.530959285</v>
       </c>
-      <c r="N2" t="n">
-        <v>246312.5309592848</v>
-      </c>
       <c r="O2" t="n">
-        <v>246312.5309592848</v>
+        <v>246312.530959285</v>
       </c>
       <c r="P2" t="n">
         <v>246312.530959285</v>
@@ -26366,13 +26366,13 @@
         <v>591356.9025208453</v>
       </c>
       <c r="C3" t="n">
-        <v>229052.9846381972</v>
+        <v>229052.9846381986</v>
       </c>
       <c r="D3" t="n">
-        <v>154732.1099795047</v>
+        <v>154732.1099795046</v>
       </c>
       <c r="E3" t="n">
-        <v>589710.804585895</v>
+        <v>589710.804585894</v>
       </c>
       <c r="F3" t="n">
         <v>11452.26311504171</v>
@@ -26387,19 +26387,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>49064.94472854458</v>
+        <v>49064.94472854459</v>
       </c>
       <c r="K3" t="n">
-        <v>53255.59218427129</v>
+        <v>53255.59218427161</v>
       </c>
       <c r="L3" t="n">
-        <v>37372.79949869205</v>
+        <v>37372.79949869198</v>
       </c>
       <c r="M3" t="n">
-        <v>173443.349248047</v>
+        <v>173443.3492480467</v>
       </c>
       <c r="N3" t="n">
-        <v>3077.017355704897</v>
+        <v>3077.017355704952</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26418,10 +26418,10 @@
         <v>206440.1887552553</v>
       </c>
       <c r="C4" t="n">
-        <v>217244.1607843577</v>
+        <v>217244.1607843573</v>
       </c>
       <c r="D4" t="n">
-        <v>173824.4120003228</v>
+        <v>173824.4120003225</v>
       </c>
       <c r="E4" t="n">
         <v>14210.2194556297</v>
@@ -26439,25 +26439,25 @@
         <v>14216.75207685507</v>
       </c>
       <c r="J4" t="n">
-        <v>14216.75207685505</v>
+        <v>14216.75207685507</v>
       </c>
       <c r="K4" t="n">
         <v>14216.75207685505</v>
       </c>
       <c r="L4" t="n">
-        <v>14216.75207685505</v>
+        <v>14216.75207685509</v>
       </c>
       <c r="M4" t="n">
-        <v>22207.61133994854</v>
+        <v>22207.61133994857</v>
       </c>
       <c r="N4" t="n">
-        <v>22207.61133994854</v>
+        <v>22207.61133994851</v>
       </c>
       <c r="O4" t="n">
-        <v>22207.61133994853</v>
+        <v>22207.61133994855</v>
       </c>
       <c r="P4" t="n">
-        <v>22207.61133994851</v>
+        <v>22207.61133994858</v>
       </c>
     </row>
     <row r="5">
@@ -26470,10 +26470,10 @@
         <v>56985.80041161356</v>
       </c>
       <c r="C5" t="n">
-        <v>73449.92183345662</v>
+        <v>73449.92183345673</v>
       </c>
       <c r="D5" t="n">
-        <v>85199.08185587224</v>
+        <v>85199.08185587233</v>
       </c>
       <c r="E5" t="n">
         <v>100142.1285138384</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-646171.7231466522</v>
+        <v>-646485.9011668041</v>
       </c>
       <c r="C6" t="n">
-        <v>-273434.5362967264</v>
+        <v>-273434.5362967277</v>
       </c>
       <c r="D6" t="n">
-        <v>-167443.0728764148</v>
+        <v>-167443.0728764145</v>
       </c>
       <c r="E6" t="n">
-        <v>-463259.2210639539</v>
+        <v>-463305.1260595185</v>
       </c>
       <c r="F6" t="n">
-        <v>115352.4348911979</v>
+        <v>115317.6969657622</v>
       </c>
       <c r="G6" t="n">
-        <v>126804.6980062396</v>
+        <v>126769.960080804</v>
       </c>
       <c r="H6" t="n">
-        <v>126804.6980062396</v>
+        <v>126769.9600808039</v>
       </c>
       <c r="I6" t="n">
-        <v>126804.6980062396</v>
+        <v>126769.960080804</v>
       </c>
       <c r="J6" t="n">
-        <v>77739.75327769511</v>
+        <v>77705.0153522593</v>
       </c>
       <c r="K6" t="n">
-        <v>73549.10582196833</v>
+        <v>73514.36789653232</v>
       </c>
       <c r="L6" t="n">
-        <v>89431.89850754758</v>
+        <v>89397.1605821119</v>
       </c>
       <c r="M6" t="n">
-        <v>-52502.54548262603</v>
+        <v>-52502.54548262584</v>
       </c>
       <c r="N6" t="n">
-        <v>117863.7864097159</v>
+        <v>117863.7864097161</v>
       </c>
       <c r="O6" t="n">
-        <v>120940.8037654209</v>
+        <v>120940.803765421</v>
       </c>
       <c r="P6" t="n">
-        <v>120940.8037654211</v>
+        <v>120940.803765421</v>
       </c>
     </row>
   </sheetData>
@@ -26713,19 +26713,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N2" t="n">
         <v>24.28464749203971</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="3">
@@ -26738,10 +26738,10 @@
         <v>548.4699409129045</v>
       </c>
       <c r="C3" t="n">
-        <v>726.5959893337023</v>
+        <v>726.5959893337033</v>
       </c>
       <c r="D3" t="n">
-        <v>853.7106645376841</v>
+        <v>853.710664537685</v>
       </c>
       <c r="E3" t="n">
         <v>1358.041048716385</v>
@@ -26790,10 +26790,10 @@
         <v>187.5255871663198</v>
       </c>
       <c r="C4" t="n">
-        <v>394.4494945062816</v>
+        <v>394.4494945062829</v>
       </c>
       <c r="D4" t="n">
-        <v>542.1149567261632</v>
+        <v>542.1149567261643</v>
       </c>
       <c r="E4" t="n">
         <v>1160.145290326006</v>
@@ -26935,10 +26935,10 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26960,13 +26960,13 @@
         <v>548.4699409129045</v>
       </c>
       <c r="C3" t="n">
-        <v>178.1260484207978</v>
+        <v>178.1260484207988</v>
       </c>
       <c r="D3" t="n">
-        <v>127.1146752039818</v>
+        <v>127.1146752039817</v>
       </c>
       <c r="E3" t="n">
-        <v>504.3303841787013</v>
+        <v>504.3303841787003</v>
       </c>
       <c r="F3" t="n">
         <v>9.934451625288375</v>
@@ -27012,13 +27012,13 @@
         <v>187.5255871663198</v>
       </c>
       <c r="C4" t="n">
-        <v>206.9239073399618</v>
+        <v>206.9239073399631</v>
       </c>
       <c r="D4" t="n">
-        <v>147.6654622198816</v>
+        <v>147.6654622198814</v>
       </c>
       <c r="E4" t="n">
-        <v>618.0303335998428</v>
+        <v>618.0303335998417</v>
       </c>
       <c r="F4" t="n">
         <v>12.56299777364234</v>
@@ -27036,16 +27036,16 @@
         <v>187.5255871663198</v>
       </c>
       <c r="K4" t="n">
-        <v>206.9239073399618</v>
+        <v>206.9239073399631</v>
       </c>
       <c r="L4" t="n">
-        <v>147.6654622198816</v>
+        <v>147.6654622198812</v>
       </c>
       <c r="M4" t="n">
-        <v>618.0303335998428</v>
+        <v>618.0303335998417</v>
       </c>
       <c r="N4" t="n">
-        <v>12.56299777364234</v>
+        <v>12.56299777364256</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27258,13 +27258,13 @@
         <v>187.5255871663198</v>
       </c>
       <c r="K4" t="n">
-        <v>206.9239073399618</v>
+        <v>206.9239073399631</v>
       </c>
       <c r="L4" t="n">
-        <v>147.6654622198816</v>
+        <v>147.6654622198814</v>
       </c>
       <c r="M4" t="n">
-        <v>618.0303335998428</v>
+        <v>618.0303335998417</v>
       </c>
       <c r="N4" t="n">
         <v>12.56299777364234</v>
@@ -27376,19 +27376,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>273.9537660546994</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>171.6655950985055</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27397,7 +27397,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>125.4713171199747</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27442,10 +27442,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27455,7 +27455,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -27473,10 +27473,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>40.40010404762111</v>
+        <v>100.8417573507397</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>48.77881175550658</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27506,10 +27506,10 @@
         <v>26.91122581714239</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>149.7702446909496</v>
       </c>
       <c r="T3" t="n">
-        <v>195.4095977920013</v>
+        <v>102.9520716922937</v>
       </c>
       <c r="U3" t="n">
         <v>225.8637684100909</v>
@@ -27521,10 +27521,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>18.24739803715767</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>18.15710861098452</v>
       </c>
     </row>
     <row r="4">
@@ -27534,31 +27534,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.0019352027142</v>
       </c>
       <c r="H4" t="n">
-        <v>129.3316568681196</v>
+        <v>153.4336708318196</v>
       </c>
       <c r="I4" t="n">
-        <v>125.7072197708667</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>23.43375830553086</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,10 +27579,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>3.343082173845815</v>
       </c>
       <c r="R4" t="n">
-        <v>132.8223696106904</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>206.7802557954962</v>
@@ -27591,16 +27591,16 @@
         <v>223.7196734901001</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2650814934503</v>
+        <v>156.3414246223244</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>98.99741117027119</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>38.18406822271734</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27616,25 +27616,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>186.3144977367309</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>17.93225410700808</v>
       </c>
       <c r="H5" t="n">
         <v>309.560224524757</v>
       </c>
       <c r="I5" t="n">
-        <v>97.86446493206395</v>
+        <v>97.8644649320638</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,22 +27664,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>142.4580349854745</v>
+        <v>114.8902804174382</v>
       </c>
       <c r="T5" t="n">
         <v>210.3092206463091</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.111973795689</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27698,22 +27698,22 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>155.28008277645</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>135.7806503182287</v>
       </c>
       <c r="H6" t="n">
-        <v>97.14144075996049</v>
+        <v>97.14144075996047</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>35.58740156585308</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27743,13 +27743,13 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>142.653604926213</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>193.8652785608813</v>
       </c>
       <c r="U6" t="n">
-        <v>114.0315076832446</v>
+        <v>225.838561893805</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -27774,7 +27774,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27786,13 +27786,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.6807242957259</v>
+        <v>82.7801773239006</v>
       </c>
       <c r="H7" t="n">
-        <v>150.5778138587779</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>116.0475317679814</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,28 +27819,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>118.3795591928335</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>201.1824257164361</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>222.3472268875136</v>
       </c>
       <c r="U7" t="n">
-        <v>270.6492155244671</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>304.326804756183</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>78.16360657708299</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,22 +27904,22 @@
         <v>130.8133087092504</v>
       </c>
       <c r="T8" t="n">
-        <v>208.0722578696039</v>
+        <v>208.0722578696038</v>
       </c>
       <c r="U8" t="n">
-        <v>251.0710926941158</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>7.392157809630987</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>168.1237980088679</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -27944,13 +27944,13 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>135.5072338470353</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>94.50081326185514</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>26.17372043046393</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27980,13 +27980,13 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>137.5750138932992</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>192.7632183107638</v>
       </c>
       <c r="U9" t="n">
-        <v>137.6713744519706</v>
+        <v>63.51490978725741</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -28008,19 +28008,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.7580812848504195</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.4515011109318</v>
@@ -28056,7 +28056,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>108.0728512656386</v>
+        <v>108.0728512656385</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -28068,16 +28068,16 @@
         <v>286.2350578157167</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>25.50151677856849</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28327,7 +28327,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -29038,7 +29038,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -29050,7 +29050,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -29284,7 +29284,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -29758,7 +29758,7 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>8.038590482916834e-13</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -29983,7 +29983,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="38">
@@ -30238,7 +30238,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -30457,7 +30457,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -30472,7 +30472,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="44">
@@ -30709,7 +30709,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
   </sheetData>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.920988901844027</v>
+        <v>2.920988901844031</v>
       </c>
       <c r="H5" t="n">
-        <v>29.91457759101015</v>
+        <v>29.91457759101019</v>
       </c>
       <c r="I5" t="n">
-        <v>112.611424638342</v>
+        <v>112.6114246383421</v>
       </c>
       <c r="J5" t="n">
-        <v>247.9152818078847</v>
+        <v>247.9152818078851</v>
       </c>
       <c r="K5" t="n">
-        <v>371.5607420229425</v>
+        <v>371.560742022943</v>
       </c>
       <c r="L5" t="n">
-        <v>460.9539561277517</v>
+        <v>460.9539561277523</v>
       </c>
       <c r="M5" t="n">
-        <v>512.9000925109203</v>
+        <v>512.9000925109211</v>
       </c>
       <c r="N5" t="n">
-        <v>521.1993522282847</v>
+        <v>521.1993522282855</v>
       </c>
       <c r="O5" t="n">
-        <v>492.1537688355732</v>
+        <v>492.1537688355739</v>
       </c>
       <c r="P5" t="n">
-        <v>420.0418553212987</v>
+        <v>420.0418553212993</v>
       </c>
       <c r="Q5" t="n">
-        <v>315.4339402740094</v>
+        <v>315.4339402740098</v>
       </c>
       <c r="R5" t="n">
-        <v>183.48556910546</v>
+        <v>183.4855691054603</v>
       </c>
       <c r="S5" t="n">
-        <v>66.56203460077083</v>
+        <v>66.56203460077093</v>
       </c>
       <c r="T5" t="n">
-        <v>12.78662891782223</v>
+        <v>12.78662891782225</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2336791121475221</v>
+        <v>0.2336791121475224</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.562866844981926</v>
+        <v>1.562866844981928</v>
       </c>
       <c r="H6" t="n">
-        <v>15.09400347653597</v>
+        <v>15.09400347653599</v>
       </c>
       <c r="I6" t="n">
-        <v>53.80923128556192</v>
+        <v>53.809231285562</v>
       </c>
       <c r="J6" t="n">
-        <v>147.6566434550687</v>
+        <v>147.6566434550689</v>
       </c>
       <c r="K6" t="n">
-        <v>252.3687220688577</v>
+        <v>252.3687220688581</v>
       </c>
       <c r="L6" t="n">
-        <v>339.340891056273</v>
+        <v>339.3408910562734</v>
       </c>
       <c r="M6" t="n">
-        <v>395.9948141868677</v>
+        <v>395.9948141868683</v>
       </c>
       <c r="N6" t="n">
-        <v>406.4756185990492</v>
+        <v>406.4756185990498</v>
       </c>
       <c r="O6" t="n">
-        <v>371.8457795602391</v>
+        <v>371.8457795602396</v>
       </c>
       <c r="P6" t="n">
-        <v>298.4390206001012</v>
+        <v>298.4390206001017</v>
       </c>
       <c r="Q6" t="n">
-        <v>199.4985818261139</v>
+        <v>199.4985818261142</v>
       </c>
       <c r="R6" t="n">
-        <v>97.03483797177257</v>
+        <v>97.03483797177272</v>
       </c>
       <c r="S6" t="n">
-        <v>29.02956617762478</v>
+        <v>29.02956617762483</v>
       </c>
       <c r="T6" t="n">
-        <v>6.299450133940304</v>
+        <v>6.299450133940312</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1028201871698636</v>
+        <v>0.1028201871698637</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.310255062732905</v>
+        <v>1.310255062732907</v>
       </c>
       <c r="H7" t="n">
-        <v>11.64935864866166</v>
+        <v>11.64935864866168</v>
       </c>
       <c r="I7" t="n">
-        <v>39.40294315927684</v>
+        <v>39.4029431592769</v>
       </c>
       <c r="J7" t="n">
-        <v>92.63503293521642</v>
+        <v>92.63503293521656</v>
       </c>
       <c r="K7" t="n">
-        <v>152.2278154702412</v>
+        <v>152.2278154702414</v>
       </c>
       <c r="L7" t="n">
-        <v>194.7991935993995</v>
+        <v>194.7991935993998</v>
       </c>
       <c r="M7" t="n">
-        <v>205.3884367882135</v>
+        <v>205.3884367882138</v>
       </c>
       <c r="N7" t="n">
-        <v>200.5047588271183</v>
+        <v>200.5047588271186</v>
       </c>
       <c r="O7" t="n">
-        <v>185.1985974124657</v>
+        <v>185.1985974124659</v>
       </c>
       <c r="P7" t="n">
-        <v>158.4693941327143</v>
+        <v>158.4693941327145</v>
       </c>
       <c r="Q7" t="n">
-        <v>109.715994389389</v>
+        <v>109.7159943893892</v>
       </c>
       <c r="R7" t="n">
-        <v>58.9138321843359</v>
+        <v>58.91383218433599</v>
       </c>
       <c r="S7" t="n">
-        <v>22.83417232053618</v>
+        <v>22.83417232053621</v>
       </c>
       <c r="T7" t="n">
-        <v>5.598362540767868</v>
+        <v>5.598362540767876</v>
       </c>
       <c r="U7" t="n">
-        <v>0.07146845796724947</v>
+        <v>0.07146845796724959</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.432002671508275</v>
+        <v>3.432002671508279</v>
       </c>
       <c r="H8" t="n">
-        <v>35.14799735958413</v>
+        <v>35.14799735958417</v>
       </c>
       <c r="I8" t="n">
-        <v>132.3122829933229</v>
+        <v>132.3122829933231</v>
       </c>
       <c r="J8" t="n">
-        <v>291.2869367409257</v>
+        <v>291.2869367409261</v>
       </c>
       <c r="K8" t="n">
-        <v>436.5636098258711</v>
+        <v>436.5636098258716</v>
       </c>
       <c r="L8" t="n">
-        <v>541.5957615840426</v>
+        <v>541.5957615840432</v>
       </c>
       <c r="M8" t="n">
-        <v>602.6296390934779</v>
+        <v>602.6296390934785</v>
       </c>
       <c r="N8" t="n">
-        <v>612.3808166839008</v>
+        <v>612.3808166839015</v>
       </c>
       <c r="O8" t="n">
-        <v>578.2538401190903</v>
+        <v>578.253840119091</v>
       </c>
       <c r="P8" t="n">
-        <v>493.5262741662298</v>
+        <v>493.5262741662303</v>
       </c>
       <c r="Q8" t="n">
-        <v>370.6176784928395</v>
+        <v>370.6176784928399</v>
       </c>
       <c r="R8" t="n">
-        <v>215.5855378141319</v>
+        <v>215.5855378141321</v>
       </c>
       <c r="S8" t="n">
-        <v>78.20676087699491</v>
+        <v>78.20676087699499</v>
       </c>
       <c r="T8" t="n">
-        <v>15.02359169452748</v>
+        <v>15.0235916945275</v>
       </c>
       <c r="U8" t="n">
-        <v>0.274560213720662</v>
+        <v>0.2745602137206622</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.836283316175396</v>
+        <v>1.836283316175398</v>
       </c>
       <c r="H9" t="n">
-        <v>17.73463097464133</v>
+        <v>17.73463097464135</v>
       </c>
       <c r="I9" t="n">
-        <v>63.22291242095115</v>
+        <v>63.22291242095121</v>
       </c>
       <c r="J9" t="n">
-        <v>173.4885040076062</v>
+        <v>173.4885040076064</v>
       </c>
       <c r="K9" t="n">
-        <v>296.5194861913577</v>
+        <v>296.5194861913581</v>
       </c>
       <c r="L9" t="n">
-        <v>398.7070419616798</v>
+        <v>398.7070419616802</v>
       </c>
       <c r="M9" t="n">
-        <v>465.2723121730378</v>
+        <v>465.2723121730382</v>
       </c>
       <c r="N9" t="n">
-        <v>477.5866858152843</v>
+        <v>477.5866858152848</v>
       </c>
       <c r="O9" t="n">
-        <v>436.8985133884505</v>
+        <v>436.898513388451</v>
       </c>
       <c r="P9" t="n">
-        <v>350.6495746475632</v>
+        <v>350.6495746475636</v>
       </c>
       <c r="Q9" t="n">
-        <v>234.3999545349506</v>
+        <v>234.3999545349508</v>
       </c>
       <c r="R9" t="n">
-        <v>114.0106430867496</v>
+        <v>114.0106430867498</v>
       </c>
       <c r="S9" t="n">
-        <v>34.10815721053859</v>
+        <v>34.10815721053862</v>
       </c>
       <c r="T9" t="n">
-        <v>7.401510384057843</v>
+        <v>7.401510384057851</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1208081129062761</v>
+        <v>0.1208081129062762</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.539478247526971</v>
+        <v>1.539478247526973</v>
       </c>
       <c r="H10" t="n">
-        <v>13.68736114619435</v>
+        <v>13.68736114619437</v>
       </c>
       <c r="I10" t="n">
-        <v>46.29630948017475</v>
+        <v>46.2963094801748</v>
       </c>
       <c r="J10" t="n">
-        <v>108.8411121001569</v>
+        <v>108.841112100157</v>
       </c>
       <c r="K10" t="n">
-        <v>178.8593818490426</v>
+        <v>178.8593818490428</v>
       </c>
       <c r="L10" t="n">
-        <v>228.8784296368736</v>
+        <v>228.8784296368738</v>
       </c>
       <c r="M10" t="n">
-        <v>241.3202129282506</v>
+        <v>241.3202129282508</v>
       </c>
       <c r="N10" t="n">
-        <v>235.5821576420139</v>
+        <v>235.5821576420141</v>
       </c>
       <c r="O10" t="n">
-        <v>217.5982526595396</v>
+        <v>217.5982526595399</v>
       </c>
       <c r="P10" t="n">
-        <v>186.1928964099892</v>
+        <v>186.1928964099895</v>
       </c>
       <c r="Q10" t="n">
-        <v>128.9103103451903</v>
+        <v>128.9103103451904</v>
       </c>
       <c r="R10" t="n">
-        <v>69.22054011153089</v>
+        <v>69.22054011153097</v>
       </c>
       <c r="S10" t="n">
-        <v>26.82890727735639</v>
+        <v>26.82890727735642</v>
       </c>
       <c r="T10" t="n">
-        <v>6.577770693978875</v>
+        <v>6.577770693978882</v>
       </c>
       <c r="U10" t="n">
-        <v>0.08397154077419852</v>
+        <v>0.08397154077419862</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31835,16 +31835,16 @@
         <v>28.2113810308819</v>
       </c>
       <c r="I12" t="n">
-        <v>100.5719078530531</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>139.4267020936831</v>
+        <v>275.9770021735817</v>
       </c>
       <c r="K12" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>634.2436048745723</v>
       </c>
       <c r="M12" t="n">
         <v>740.13237155043</v>
@@ -31856,13 +31856,13 @@
         <v>694.9967242426203</v>
       </c>
       <c r="P12" t="n">
-        <v>557.7961431982452</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>372.8719498286952</v>
+        <v>201.1867228707738</v>
       </c>
       <c r="R12" t="n">
-        <v>181.3625385436713</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
         <v>54.25758340862159</v>
@@ -32072,22 +32072,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>266.6561007250664</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>752.2150000824579</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
         <v>700.0808204437243</v>
@@ -32099,7 +32099,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32309,34 +32309,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O18" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32549,31 +32549,31 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32786,31 +32786,31 @@
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33023,31 +33023,31 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33260,13 +33260,13 @@
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
@@ -33275,16 +33275,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33494,7 +33494,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33512,7 +33512,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33734,31 +33734,31 @@
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33971,13 +33971,13 @@
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
@@ -33986,16 +33986,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34208,10 +34208,10 @@
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473072</v>
@@ -34223,10 +34223,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -34363,7 +34363,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34857,19 +34857,19 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>92.63945645062398</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>12.15921574646075</v>
+        <v>174.6339172880152</v>
       </c>
       <c r="M4" t="n">
         <v>187.5255871663198</v>
       </c>
       <c r="N4" t="n">
-        <v>187.5255871663198</v>
+        <v>99.08507489005474</v>
       </c>
       <c r="O4" t="n">
-        <v>145.7767564879483</v>
+        <v>164.382023673283</v>
       </c>
       <c r="P4" t="n">
         <v>116.8989542469472</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>66.86937728119844</v>
+        <v>66.86937728119878</v>
       </c>
       <c r="K5" t="n">
-        <v>151.4708909779619</v>
+        <v>151.4708909779624</v>
       </c>
       <c r="L5" t="n">
-        <v>225.1875411577644</v>
+        <v>225.1875411577651</v>
       </c>
       <c r="M5" t="n">
-        <v>282.5538592836476</v>
+        <v>282.5538592836484</v>
       </c>
       <c r="N5" t="n">
-        <v>291.7862886316938</v>
+        <v>291.7862886316946</v>
       </c>
       <c r="O5" t="n">
-        <v>262.0555574138865</v>
+        <v>262.0555574138872</v>
       </c>
       <c r="P5" t="n">
-        <v>188.8088595660292</v>
+        <v>188.8088595660298</v>
       </c>
       <c r="Q5" t="n">
-        <v>93.1282503995599</v>
+        <v>93.12825039956036</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>20.81901678840202</v>
+        <v>20.81901678840222</v>
       </c>
       <c r="K6" t="n">
-        <v>147.9521660888679</v>
+        <v>114.5272830944991</v>
       </c>
       <c r="L6" t="n">
-        <v>200.7865112763988</v>
+        <v>214.303800686108</v>
       </c>
       <c r="M6" t="n">
-        <v>253.8607802648494</v>
+        <v>253.86078026485</v>
       </c>
       <c r="N6" t="n">
-        <v>275.1339065157159</v>
+        <v>275.1339065157165</v>
       </c>
       <c r="O6" t="n">
-        <v>229.2495351157947</v>
+        <v>229.2495351157952</v>
       </c>
       <c r="P6" t="n">
-        <v>164.464613185771</v>
+        <v>394.4494945062829</v>
       </c>
       <c r="Q6" t="n">
-        <v>269.5940954759415</v>
+        <v>59.51680774009267</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,25 +35094,25 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>129.9583236443583</v>
+        <v>129.9583236443586</v>
       </c>
       <c r="L7" t="n">
-        <v>222.3892188597156</v>
+        <v>222.3892188597159</v>
       </c>
       <c r="M7" t="n">
-        <v>244.9723137500541</v>
+        <v>244.9723137500544</v>
       </c>
       <c r="N7" t="n">
-        <v>244.6369312063469</v>
+        <v>244.6369312063472</v>
       </c>
       <c r="O7" t="n">
-        <v>209.7837253265053</v>
+        <v>209.7837253265056</v>
       </c>
       <c r="P7" t="n">
-        <v>155.7479533976077</v>
+        <v>155.747953397608</v>
       </c>
       <c r="Q7" t="n">
-        <v>23.55395113769465</v>
+        <v>23.55395113769481</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,28 +35170,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>110.2410322142395</v>
+        <v>110.2410322142398</v>
       </c>
       <c r="K8" t="n">
-        <v>216.4737587808906</v>
+        <v>216.473758780891</v>
       </c>
       <c r="L8" t="n">
-        <v>305.8293466140554</v>
+        <v>305.829346614056</v>
       </c>
       <c r="M8" t="n">
-        <v>372.2834058662052</v>
+        <v>372.2834058662058</v>
       </c>
       <c r="N8" t="n">
-        <v>382.9677530873099</v>
+        <v>382.9677530873105</v>
       </c>
       <c r="O8" t="n">
-        <v>348.1556286974036</v>
+        <v>348.1556286974043</v>
       </c>
       <c r="P8" t="n">
-        <v>262.2932784109602</v>
+        <v>262.2932784109608</v>
       </c>
       <c r="Q8" t="n">
-        <v>148.31198861839</v>
+        <v>148.3119886183904</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>46.6508773409395</v>
+        <v>46.65087734093967</v>
       </c>
       <c r="K9" t="n">
-        <v>423.1432842295773</v>
+        <v>246.5110155176351</v>
       </c>
       <c r="L9" t="n">
-        <v>260.1526621818056</v>
+        <v>260.152662181806</v>
       </c>
       <c r="M9" t="n">
-        <v>323.1382782510195</v>
+        <v>323.1382782510199</v>
       </c>
       <c r="N9" t="n">
-        <v>346.2449737319509</v>
+        <v>346.2449737319515</v>
       </c>
       <c r="O9" t="n">
-        <v>294.302268944006</v>
+        <v>294.3022689440065</v>
       </c>
       <c r="P9" t="n">
-        <v>358.5056671612264</v>
+        <v>535.1379358731705</v>
       </c>
       <c r="Q9" t="n">
-        <v>94.41818044892906</v>
+        <v>94.41818044892932</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>15.48193198348409</v>
+        <v>15.48193198348422</v>
       </c>
       <c r="K10" t="n">
-        <v>156.5898900231598</v>
+        <v>156.58989002316</v>
       </c>
       <c r="L10" t="n">
-        <v>256.4684548971897</v>
+        <v>256.46845489719</v>
       </c>
       <c r="M10" t="n">
-        <v>280.9040898900911</v>
+        <v>280.9040898900914</v>
       </c>
       <c r="N10" t="n">
-        <v>279.7143300212425</v>
+        <v>279.7143300212427</v>
       </c>
       <c r="O10" t="n">
-        <v>242.1833805735793</v>
+        <v>242.1833805735795</v>
       </c>
       <c r="P10" t="n">
-        <v>183.4714556748827</v>
+        <v>183.4714556748829</v>
       </c>
       <c r="Q10" t="n">
-        <v>42.74826709349593</v>
+        <v>42.74826709349604</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35483,16 +35483,16 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.049527853053078</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>12.5890754270164</v>
+        <v>149.139375506915</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>495.6892250946981</v>
       </c>
       <c r="M12" t="n">
         <v>597.9983376284117</v>
@@ -35504,13 +35504,13 @@
         <v>552.4004797981759</v>
       </c>
       <c r="P12" t="n">
-        <v>423.821735783915</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>232.8901757426736</v>
+        <v>61.20494878475228</v>
       </c>
       <c r="R12" t="n">
-        <v>35.68303457970737</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35720,22 +35720,22 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>128.8146617507074</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>620.8732879991246</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
         <v>557.4845759992799</v>
@@ -35747,7 +35747,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35957,34 +35957,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O18" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36197,31 +36197,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36434,31 +36434,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36908,13 +36908,13 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
@@ -36923,16 +36923,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37142,7 +37142,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37160,7 +37160,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37382,31 +37382,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37464,25 +37464,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L37" t="n">
         <v>418.6266618111712</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N37" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O37" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P37" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37619,13 +37619,13 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
@@ -37634,16 +37634,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37704,7 +37704,7 @@
         <v>288.6172359016746</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M40" t="n">
         <v>450.5570744930848</v>
@@ -37856,10 +37856,10 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
         <v>500.328895167433</v>
@@ -37871,10 +37871,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37938,25 +37938,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L43" t="n">
         <v>418.6266618111712</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N43" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O43" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P43" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38011,7 +38011,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38193,7 +38193,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q46" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
